--- a/Excel/Datasets/Excel Project Dataset.xlsx
+++ b/Excel/Datasets/Excel Project Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DATA_ANALYSIS\Excel\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC04089-7769-4E43-9915-B025B1F01043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC2AC8B-B5BD-4CFA-A5DE-D546E46AB7CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bike_buyers" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -284,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +464,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -625,10 +631,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -983,60 +990,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12496</v>
       </c>
@@ -1077,7 +1095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24107</v>
       </c>
@@ -1118,7 +1136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14177</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24381</v>
       </c>
@@ -1200,7 +1218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25597</v>
       </c>
@@ -1241,7 +1259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13507</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27974</v>
       </c>
@@ -1323,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19364</v>
       </c>
@@ -1364,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22155</v>
       </c>
@@ -1405,7 +1423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19280</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22173</v>
       </c>
@@ -1487,7 +1505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12697</v>
       </c>
@@ -1528,7 +1546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11434</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25323</v>
       </c>
@@ -1610,7 +1628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23542</v>
       </c>
@@ -1651,7 +1669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20870</v>
       </c>
@@ -1692,7 +1710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23316</v>
       </c>
@@ -1733,7 +1751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12610</v>
       </c>
@@ -1774,7 +1792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27183</v>
       </c>
@@ -1815,7 +1833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25940</v>
       </c>
@@ -1856,7 +1874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25598</v>
       </c>
@@ -1897,7 +1915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21564</v>
       </c>
@@ -1938,7 +1956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19193</v>
       </c>
@@ -1979,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26412</v>
       </c>
@@ -2020,7 +2038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27184</v>
       </c>
@@ -2061,7 +2079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12590</v>
       </c>
@@ -2102,7 +2120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17841</v>
       </c>
@@ -2143,7 +2161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18283</v>
       </c>
@@ -2184,7 +2202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18299</v>
       </c>
@@ -2225,7 +2243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16466</v>
       </c>
@@ -2266,7 +2284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19273</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22400</v>
       </c>
@@ -2348,7 +2366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20942</v>
       </c>
@@ -2389,7 +2407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>18484</v>
       </c>
@@ -2430,7 +2448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12291</v>
       </c>
@@ -2471,7 +2489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28380</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17891</v>
       </c>
@@ -2553,7 +2571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>27832</v>
       </c>
@@ -2594,7 +2612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>26863</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16259</v>
       </c>
@@ -2676,7 +2694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>27803</v>
       </c>
@@ -2717,7 +2735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14347</v>
       </c>
@@ -2758,7 +2776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17703</v>
       </c>
@@ -2799,7 +2817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17185</v>
       </c>
@@ -2840,7 +2858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>29380</v>
       </c>
@@ -2881,7 +2899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>23986</v>
       </c>
@@ -2922,7 +2940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24466</v>
       </c>
@@ -2963,7 +2981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>29097</v>
       </c>
@@ -3004,7 +3022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19487</v>
       </c>
@@ -3045,7 +3063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14939</v>
       </c>
@@ -3086,7 +3104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>13826</v>
       </c>
@@ -3127,7 +3145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20619</v>
       </c>
@@ -3168,7 +3186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12558</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>24871</v>
       </c>
@@ -3250,7 +3268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>17319</v>
       </c>
@@ -3291,7 +3309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>28906</v>
       </c>
@@ -3332,7 +3350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12808</v>
       </c>
@@ -3373,7 +3391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20567</v>
       </c>
@@ -3414,7 +3432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>25502</v>
       </c>
@@ -3455,7 +3473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15580</v>
       </c>
@@ -3496,7 +3514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>24185</v>
       </c>
@@ -3537,7 +3555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>19291</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16713</v>
       </c>
@@ -3619,7 +3637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16185</v>
       </c>
@@ -3660,7 +3678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14927</v>
       </c>
@@ -3701,7 +3719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>29337</v>
       </c>
@@ -3742,7 +3760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>29355</v>
       </c>
@@ -3783,7 +3801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>25303</v>
       </c>
@@ -3824,7 +3842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14813</v>
       </c>
@@ -3865,7 +3883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16438</v>
       </c>
@@ -3906,7 +3924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14238</v>
       </c>
@@ -3947,7 +3965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16200</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>24857</v>
       </c>
@@ -4029,7 +4047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>26956</v>
       </c>
@@ -4070,7 +4088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14517</v>
       </c>
@@ -4111,7 +4129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>12678</v>
       </c>
@@ -4152,7 +4170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>16188</v>
       </c>
@@ -4193,7 +4211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>27969</v>
       </c>
@@ -4234,7 +4252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>15752</v>
       </c>
@@ -4275,7 +4293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>27745</v>
       </c>
@@ -4316,7 +4334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20828</v>
       </c>
@@ -4357,7 +4375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>19461</v>
       </c>
@@ -4398,7 +4416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>26941</v>
       </c>
@@ -4439,7 +4457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>28412</v>
       </c>
@@ -4480,7 +4498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>24485</v>
       </c>
@@ -4521,7 +4539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>16514</v>
       </c>
@@ -4562,7 +4580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>17191</v>
       </c>
@@ -4603,7 +4621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>19608</v>
       </c>
@@ -4644,7 +4662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>24119</v>
       </c>
@@ -4685,7 +4703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>25458</v>
       </c>
@@ -4726,7 +4744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>26886</v>
       </c>
@@ -4767,7 +4785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>28436</v>
       </c>
@@ -4808,7 +4826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19562</v>
       </c>
@@ -4849,7 +4867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>15608</v>
       </c>
@@ -4890,7 +4908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>16487</v>
       </c>
@@ -4931,7 +4949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>17197</v>
       </c>
@@ -4972,7 +4990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>12507</v>
       </c>
@@ -5013,7 +5031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>23940</v>
       </c>
@@ -5054,7 +5072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>19441</v>
       </c>
@@ -5095,7 +5113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>26852</v>
       </c>
@@ -5136,7 +5154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>12274</v>
       </c>
@@ -5177,7 +5195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20236</v>
       </c>
@@ -5218,7 +5236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>24149</v>
       </c>
@@ -5259,7 +5277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>26139</v>
       </c>
@@ -5300,7 +5318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>18491</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22707</v>
       </c>
@@ -5382,7 +5400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20430</v>
       </c>
@@ -5423,7 +5441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>27494</v>
       </c>
@@ -5464,7 +5482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>26829</v>
       </c>
@@ -5505,7 +5523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>28395</v>
       </c>
@@ -5546,7 +5564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>21006</v>
       </c>
@@ -5587,7 +5605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>14682</v>
       </c>
@@ -5628,7 +5646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>17650</v>
       </c>
@@ -5669,7 +5687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>29191</v>
       </c>
@@ -5710,7 +5728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>15030</v>
       </c>
@@ -5751,7 +5769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>24140</v>
       </c>
@@ -5792,7 +5810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>22496</v>
       </c>
@@ -5833,7 +5851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24065</v>
       </c>
@@ -5874,7 +5892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>19914</v>
       </c>
@@ -5915,7 +5933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12871</v>
       </c>
@@ -5956,7 +5974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>22988</v>
       </c>
@@ -5997,7 +6015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>15922</v>
       </c>
@@ -6038,7 +6056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>12344</v>
       </c>
@@ -6079,7 +6097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>23627</v>
       </c>
@@ -6120,7 +6138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>27775</v>
       </c>
@@ -6161,7 +6179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>29301</v>
       </c>
@@ -6202,7 +6220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>12716</v>
       </c>
@@ -6243,7 +6261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>12472</v>
       </c>
@@ -6284,7 +6302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20970</v>
       </c>
@@ -6325,7 +6343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>26818</v>
       </c>
@@ -6366,7 +6384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>12993</v>
       </c>
@@ -6407,7 +6425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>14192</v>
       </c>
@@ -6448,7 +6466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>19477</v>
       </c>
@@ -6489,7 +6507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>26796</v>
       </c>
@@ -6530,7 +6548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>21094</v>
       </c>
@@ -6571,7 +6589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>12234</v>
       </c>
@@ -6612,7 +6630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>28683</v>
       </c>
@@ -6653,7 +6671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>17994</v>
       </c>
@@ -6694,7 +6712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24273</v>
       </c>
@@ -6735,7 +6753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>26547</v>
       </c>
@@ -6776,7 +6794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>22500</v>
       </c>
@@ -6817,7 +6835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>23993</v>
       </c>
@@ -6858,7 +6876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14832</v>
       </c>
@@ -6899,7 +6917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>16614</v>
       </c>
@@ -6940,7 +6958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>20877</v>
       </c>
@@ -6981,7 +6999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20729</v>
       </c>
@@ -7022,7 +7040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>22464</v>
       </c>
@@ -7063,7 +7081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>19475</v>
       </c>
@@ -7104,7 +7122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>19675</v>
       </c>
@@ -7145,7 +7163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>12728</v>
       </c>
@@ -7186,7 +7204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>26154</v>
       </c>
@@ -7227,7 +7245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>29117</v>
       </c>
@@ -7268,7 +7286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>17845</v>
       </c>
@@ -7309,7 +7327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>25058</v>
       </c>
@@ -7350,7 +7368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>23426</v>
       </c>
@@ -7391,7 +7409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>14798</v>
       </c>
@@ -7432,7 +7450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>12664</v>
       </c>
@@ -7473,7 +7491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>23979</v>
       </c>
@@ -7514,7 +7532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>25605</v>
       </c>
@@ -7555,7 +7573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>20797</v>
       </c>
@@ -7596,7 +7614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>21980</v>
       </c>
@@ -7637,7 +7655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>25460</v>
       </c>
@@ -7678,7 +7696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>29181</v>
       </c>
@@ -7719,7 +7737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>24279</v>
       </c>
@@ -7760,7 +7778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>22402</v>
       </c>
@@ -7801,7 +7819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>15465</v>
       </c>
@@ -7842,7 +7860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>26757</v>
       </c>
@@ -7883,7 +7901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>14233</v>
       </c>
@@ -7924,7 +7942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>14058</v>
       </c>
@@ -7965,7 +7983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>12273</v>
       </c>
@@ -8006,7 +8024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>17203</v>
       </c>
@@ -8047,7 +8065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>18144</v>
       </c>
@@ -8088,7 +8106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>23963</v>
       </c>
@@ -8129,7 +8147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>17907</v>
       </c>
@@ -8170,7 +8188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>19442</v>
       </c>
@@ -8211,7 +8229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>17504</v>
       </c>
@@ -8252,7 +8270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>12253</v>
       </c>
@@ -8293,7 +8311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>27304</v>
       </c>
@@ -8334,7 +8352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>14191</v>
       </c>
@@ -8375,7 +8393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>12212</v>
       </c>
@@ -8416,7 +8434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>25529</v>
       </c>
@@ -8457,7 +8475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>22170</v>
       </c>
@@ -8498,7 +8516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>19445</v>
       </c>
@@ -8539,7 +8557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>15265</v>
       </c>
@@ -8580,7 +8598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>28918</v>
       </c>
@@ -8621,7 +8639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>15799</v>
       </c>
@@ -8662,7 +8680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>11047</v>
       </c>
@@ -8703,7 +8721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>18151</v>
       </c>
@@ -8744,7 +8762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>20606</v>
       </c>
@@ -8785,7 +8803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>19482</v>
       </c>
@@ -8826,7 +8844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>16489</v>
       </c>
@@ -8867,7 +8885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>26944</v>
       </c>
@@ -8908,7 +8926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>15682</v>
       </c>
@@ -8949,7 +8967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>26032</v>
       </c>
@@ -8990,7 +9008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>17843</v>
       </c>
@@ -9031,7 +9049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>25559</v>
       </c>
@@ -9072,7 +9090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>16209</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>11147</v>
       </c>
@@ -9154,7 +9172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>15214</v>
       </c>
@@ -9195,7 +9213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>11453</v>
       </c>
@@ -9236,7 +9254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>24584</v>
       </c>
@@ -9277,7 +9295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>12585</v>
       </c>
@@ -9318,7 +9336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>18626</v>
       </c>
@@ -9359,7 +9377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>29298</v>
       </c>
@@ -9400,7 +9418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>24842</v>
       </c>
@@ -9441,7 +9459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>15657</v>
       </c>
@@ -9482,7 +9500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11415</v>
       </c>
@@ -9523,7 +9541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>28729</v>
       </c>
@@ -9564,7 +9582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>22633</v>
       </c>
@@ -9605,7 +9623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>25649</v>
       </c>
@@ -9646,7 +9664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>14669</v>
       </c>
@@ -9687,7 +9705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>19299</v>
       </c>
@@ -9728,7 +9746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>20946</v>
       </c>
@@ -9769,7 +9787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11451</v>
       </c>
@@ -9810,7 +9828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>25553</v>
       </c>
@@ -9851,7 +9869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>27951</v>
       </c>
@@ -9892,7 +9910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>25026</v>
       </c>
@@ -9933,7 +9951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>13673</v>
       </c>
@@ -9974,7 +9992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>16043</v>
       </c>
@@ -10015,7 +10033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>22399</v>
       </c>
@@ -10056,7 +10074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>27696</v>
       </c>
@@ -10097,7 +10115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>25313</v>
       </c>
@@ -10138,7 +10156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>13813</v>
       </c>
@@ -10179,7 +10197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>18711</v>
       </c>
@@ -10220,7 +10238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>19650</v>
       </c>
@@ -10261,7 +10279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>14135</v>
       </c>
@@ -10302,7 +10320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>12833</v>
       </c>
@@ -10343,7 +10361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>26849</v>
       </c>
@@ -10384,7 +10402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>20962</v>
       </c>
@@ -10425,7 +10443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>28915</v>
       </c>
@@ -10466,7 +10484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>22830</v>
       </c>
@@ -10507,7 +10525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>14777</v>
       </c>
@@ -10548,7 +10566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>12591</v>
       </c>
@@ -10589,7 +10607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>24174</v>
       </c>
@@ -10630,7 +10648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>24611</v>
       </c>
@@ -10671,7 +10689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>11340</v>
       </c>
@@ -10712,7 +10730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>25693</v>
       </c>
@@ -10753,7 +10771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>25555</v>
       </c>
@@ -10794,7 +10812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>22006</v>
       </c>
@@ -10835,7 +10853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>20060</v>
       </c>
@@ -10876,7 +10894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>17702</v>
       </c>
@@ -10917,7 +10935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>12503</v>
       </c>
@@ -10958,7 +10976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>23908</v>
       </c>
@@ -10999,7 +11017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>22527</v>
       </c>
@@ -11040,7 +11058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>19057</v>
       </c>
@@ -11081,7 +11099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>18494</v>
       </c>
@@ -11122,7 +11140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>11249</v>
       </c>
@@ -11163,7 +11181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>21568</v>
       </c>
@@ -11204,7 +11222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>13981</v>
       </c>
@@ -11245,7 +11263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>23432</v>
       </c>
@@ -11286,7 +11304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>22931</v>
       </c>
@@ -11327,7 +11345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>18172</v>
       </c>
@@ -11368,7 +11386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>12666</v>
       </c>
@@ -11409,7 +11427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>20598</v>
       </c>
@@ -11450,7 +11468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>21375</v>
       </c>
@@ -11491,7 +11509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>20839</v>
       </c>
@@ -11532,7 +11550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>21738</v>
       </c>
@@ -11573,7 +11591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>14164</v>
       </c>
@@ -11614,7 +11632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>14193</v>
       </c>
@@ -11655,7 +11673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>12705</v>
       </c>
@@ -11696,7 +11714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>22672</v>
       </c>
@@ -11737,7 +11755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>26219</v>
       </c>
@@ -11778,7 +11796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>28468</v>
       </c>
@@ -11819,7 +11837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>23419</v>
       </c>
@@ -11860,7 +11878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>17964</v>
       </c>
@@ -11901,7 +11919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>20919</v>
       </c>
@@ -11942,7 +11960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>20927</v>
       </c>
@@ -11983,7 +12001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>13133</v>
       </c>
@@ -12024,7 +12042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>19626</v>
       </c>
@@ -12065,7 +12083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>21039</v>
       </c>
@@ -12106,7 +12124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>12231</v>
       </c>
@@ -12147,7 +12165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>25665</v>
       </c>
@@ -12188,7 +12206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>24061</v>
       </c>
@@ -12229,7 +12247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>26879</v>
       </c>
@@ -12270,7 +12288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>12284</v>
       </c>
@@ -12311,7 +12329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>26654</v>
       </c>
@@ -12352,7 +12370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>14545</v>
       </c>
@@ -12393,7 +12411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>24201</v>
       </c>
@@ -12434,7 +12452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>20625</v>
       </c>
@@ -12475,7 +12493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>16390</v>
       </c>
@@ -12516,7 +12534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>14804</v>
       </c>
@@ -12557,7 +12575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>12629</v>
       </c>
@@ -12598,7 +12616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>14696</v>
       </c>
@@ -12639,7 +12657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>22005</v>
       </c>
@@ -12680,7 +12698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>14544</v>
       </c>
@@ -12721,7 +12739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>14312</v>
       </c>
@@ -12762,7 +12780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>29120</v>
       </c>
@@ -12803,7 +12821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>24187</v>
       </c>
@@ -12844,7 +12862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>15758</v>
       </c>
@@ -12885,7 +12903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>29094</v>
       </c>
@@ -12926,7 +12944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>28319</v>
       </c>
@@ -12967,7 +12985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>16406</v>
       </c>
@@ -13008,7 +13026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>20923</v>
       </c>
@@ -13049,7 +13067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>11378</v>
       </c>
@@ -13090,7 +13108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>20851</v>
       </c>
@@ -13131,7 +13149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>21557</v>
       </c>
@@ -13172,7 +13190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>26663</v>
       </c>
@@ -13213,7 +13231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>11896</v>
       </c>
@@ -13254,7 +13272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>14189</v>
       </c>
@@ -13295,7 +13313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>13136</v>
       </c>
@@ -13336,7 +13354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>25906</v>
       </c>
@@ -13377,7 +13395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>17926</v>
       </c>
@@ -13418,7 +13436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>26928</v>
       </c>
@@ -13459,7 +13477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>20897</v>
       </c>
@@ -13500,7 +13518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>28207</v>
       </c>
@@ -13541,7 +13559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>25923</v>
       </c>
@@ -13582,7 +13600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>11000</v>
       </c>
@@ -13623,7 +13641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>20974</v>
       </c>
@@ -13664,7 +13682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>28758</v>
       </c>
@@ -13705,7 +13723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>11381</v>
       </c>
@@ -13746,7 +13764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>17522</v>
       </c>
@@ -13787,7 +13805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>21207</v>
       </c>
@@ -13828,7 +13846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>28102</v>
       </c>
@@ -13869,7 +13887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>23105</v>
       </c>
@@ -13910,7 +13928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>18740</v>
       </c>
@@ -13951,7 +13969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>21213</v>
       </c>
@@ -13992,7 +14010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>17352</v>
       </c>
@@ -14033,7 +14051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14154</v>
       </c>
@@ -14074,7 +14092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>19066</v>
       </c>
@@ -14115,7 +14133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>11386</v>
       </c>
@@ -14156,7 +14174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>20228</v>
       </c>
@@ -14197,7 +14215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>16675</v>
       </c>
@@ -14238,7 +14256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>16410</v>
       </c>
@@ -14279,7 +14297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>27760</v>
       </c>
@@ -14320,7 +14338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>22930</v>
       </c>
@@ -14361,7 +14379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>23780</v>
       </c>
@@ -14402,7 +14420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>20994</v>
       </c>
@@ -14443,7 +14461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>28379</v>
       </c>
@@ -14484,7 +14502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>14865</v>
       </c>
@@ -14525,7 +14543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>12663</v>
       </c>
@@ -14566,7 +14584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>24898</v>
       </c>
@@ -14607,7 +14625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>19508</v>
       </c>
@@ -14648,7 +14666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>11489</v>
       </c>
@@ -14689,7 +14707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>18160</v>
       </c>
@@ -14730,7 +14748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>25241</v>
       </c>
@@ -14771,7 +14789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>24369</v>
       </c>
@@ -14812,7 +14830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>27165</v>
       </c>
@@ -14853,7 +14871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>29424</v>
       </c>
@@ -14894,7 +14912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>15926</v>
       </c>
@@ -14935,7 +14953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>14554</v>
       </c>
@@ -14976,7 +14994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>16468</v>
       </c>
@@ -15017,7 +15035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>19174</v>
       </c>
@@ -15058,7 +15076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>19183</v>
       </c>
@@ -15099,7 +15117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>13683</v>
       </c>
@@ -15140,7 +15158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>17848</v>
       </c>
@@ -15181,7 +15199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>17894</v>
       </c>
@@ -15222,7 +15240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>25651</v>
       </c>
@@ -15263,7 +15281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>22936</v>
       </c>
@@ -15304,7 +15322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>23915</v>
       </c>
@@ -15345,7 +15363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>24121</v>
       </c>
@@ -15386,7 +15404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>27878</v>
       </c>
@@ -15427,7 +15445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>13572</v>
       </c>
@@ -15468,7 +15486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>27941</v>
       </c>
@@ -15509,7 +15527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>26354</v>
       </c>
@@ -15550,7 +15568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>14785</v>
       </c>
@@ -15591,7 +15609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>17238</v>
       </c>
@@ -15632,7 +15650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>23608</v>
       </c>
@@ -15673,7 +15691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>22538</v>
       </c>
@@ -15714,7 +15732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>12332</v>
       </c>
@@ -15755,7 +15773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>17230</v>
       </c>
@@ -15796,7 +15814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>13082</v>
       </c>
@@ -15837,7 +15855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>22518</v>
       </c>
@@ -15878,7 +15896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>13687</v>
       </c>
@@ -15919,7 +15937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>23571</v>
       </c>
@@ -15960,7 +15978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>19305</v>
       </c>
@@ -16001,7 +16019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>22636</v>
       </c>
@@ -16042,7 +16060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>17310</v>
       </c>
@@ -16083,7 +16101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>12133</v>
       </c>
@@ -16124,7 +16142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>25918</v>
       </c>
@@ -16165,7 +16183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>25752</v>
       </c>
@@ -16206,7 +16224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>17324</v>
       </c>
@@ -16247,7 +16265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>22918</v>
       </c>
@@ -16288,7 +16306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>12510</v>
       </c>
@@ -16329,7 +16347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>25512</v>
       </c>
@@ -16370,7 +16388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>16179</v>
       </c>
@@ -16411,7 +16429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>15628</v>
       </c>
@@ -16452,7 +16470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>20977</v>
       </c>
@@ -16493,7 +16511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>18140</v>
       </c>
@@ -16534,7 +16552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>20417</v>
       </c>
@@ -16575,7 +16593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>18267</v>
       </c>
@@ -16616,7 +16634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>13620</v>
       </c>
@@ -16657,7 +16675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>22974</v>
       </c>
@@ -16698,7 +16716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>13586</v>
       </c>
@@ -16739,7 +16757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>17978</v>
       </c>
@@ -16780,7 +16798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>12581</v>
       </c>
@@ -16821,7 +16839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>18018</v>
       </c>
@@ -16862,7 +16880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>28957</v>
       </c>
@@ -16903,7 +16921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>13690</v>
       </c>
@@ -16944,7 +16962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>12568</v>
       </c>
@@ -16985,7 +17003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>13122</v>
       </c>
@@ -17026,7 +17044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>21184</v>
       </c>
@@ -17067,7 +17085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>26150</v>
       </c>
@@ -17108,7 +17126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>24151</v>
       </c>
@@ -17149,7 +17167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>23962</v>
       </c>
@@ -17190,7 +17208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>17793</v>
       </c>
@@ -17231,7 +17249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>14926</v>
       </c>
@@ -17272,7 +17290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>16163</v>
       </c>
@@ -17313,7 +17331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>21365</v>
       </c>
@@ -17354,7 +17372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>27771</v>
       </c>
@@ -17395,7 +17413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>26167</v>
       </c>
@@ -17436,7 +17454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>25792</v>
       </c>
@@ -17477,7 +17495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>11555</v>
       </c>
@@ -17518,7 +17536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>22381</v>
       </c>
@@ -17559,7 +17577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>17882</v>
       </c>
@@ -17600,7 +17618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>22174</v>
       </c>
@@ -17641,7 +17659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>22439</v>
       </c>
@@ -17682,7 +17700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>18012</v>
       </c>
@@ -17723,7 +17741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>27582</v>
       </c>
@@ -17764,7 +17782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>12744</v>
       </c>
@@ -17805,7 +17823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>22821</v>
       </c>
@@ -17846,7 +17864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>20171</v>
       </c>
@@ -17887,7 +17905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>11116</v>
       </c>
@@ -17928,7 +17946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>20053</v>
       </c>
@@ -17969,7 +17987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>25266</v>
       </c>
@@ -18010,7 +18028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>17960</v>
       </c>
@@ -18051,7 +18069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>13961</v>
       </c>
@@ -18092,7 +18110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>11897</v>
       </c>
@@ -18133,7 +18151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>11139</v>
       </c>
@@ -18174,7 +18192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>11576</v>
       </c>
@@ -18215,7 +18233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>19255</v>
       </c>
@@ -18256,7 +18274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>18153</v>
       </c>
@@ -18297,7 +18315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>14547</v>
       </c>
@@ -18338,7 +18356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>24901</v>
       </c>
@@ -18379,7 +18397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>27169</v>
       </c>
@@ -18420,7 +18438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>14805</v>
       </c>
@@ -18461,7 +18479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>15822</v>
       </c>
@@ -18502,7 +18520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>19389</v>
       </c>
@@ -18543,7 +18561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>17048</v>
       </c>
@@ -18584,7 +18602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>22204</v>
       </c>
@@ -18625,7 +18643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>12718</v>
       </c>
@@ -18666,7 +18684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>15019</v>
       </c>
@@ -18707,7 +18725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>28488</v>
       </c>
@@ -18748,7 +18766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>21891</v>
       </c>
@@ -18789,7 +18807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>27814</v>
       </c>
@@ -18830,7 +18848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>22175</v>
       </c>
@@ -18871,7 +18889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>29447</v>
       </c>
@@ -18912,7 +18930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>19784</v>
       </c>
@@ -18953,7 +18971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>27824</v>
       </c>
@@ -18994,7 +19012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>24093</v>
       </c>
@@ -19035,7 +19053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>19618</v>
       </c>
@@ -19076,7 +19094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>21561</v>
       </c>
@@ -19117,7 +19135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>11061</v>
       </c>
@@ -19158,7 +19176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>26651</v>
       </c>
@@ -19199,7 +19217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>21108</v>
       </c>
@@ -19240,7 +19258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>12731</v>
       </c>
@@ -19281,7 +19299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>25307</v>
       </c>
@@ -19322,7 +19340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>14278</v>
       </c>
@@ -19363,7 +19381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>20711</v>
       </c>
@@ -19404,7 +19422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>11383</v>
       </c>
@@ -19445,7 +19463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>12497</v>
       </c>
@@ -19486,7 +19504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>16559</v>
       </c>
@@ -19527,7 +19545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>11585</v>
       </c>
@@ -19568,7 +19586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>20277</v>
       </c>
@@ -19609,7 +19627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>26765</v>
       </c>
@@ -19650,7 +19668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>12389</v>
       </c>
@@ -19691,7 +19709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>13585</v>
       </c>
@@ -19732,7 +19750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>26385</v>
       </c>
@@ -19773,7 +19791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>12236</v>
       </c>
@@ -19814,7 +19832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>21560</v>
       </c>
@@ -19855,7 +19873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>21554</v>
       </c>
@@ -19896,7 +19914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>13662</v>
       </c>
@@ -19937,7 +19955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>13089</v>
       </c>
@@ -19978,7 +19996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>14791</v>
       </c>
@@ -20019,7 +20037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>19331</v>
       </c>
@@ -20060,7 +20078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>17754</v>
       </c>
@@ -20101,7 +20119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>11149</v>
       </c>
@@ -20142,7 +20160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>16549</v>
       </c>
@@ -20183,7 +20201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>24305</v>
       </c>
@@ -20224,7 +20242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>18253</v>
       </c>
@@ -20265,7 +20283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>20147</v>
       </c>
@@ -20306,7 +20324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>15612</v>
       </c>
@@ -20347,7 +20365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>28323</v>
       </c>
@@ -20388,7 +20406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>22634</v>
       </c>
@@ -20429,7 +20447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>15665</v>
       </c>
@@ -20470,7 +20488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>27585</v>
       </c>
@@ -20511,7 +20529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>19748</v>
       </c>
@@ -20552,7 +20570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>21974</v>
       </c>
@@ -20593,7 +20611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>14032</v>
       </c>
@@ -20634,7 +20652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>22610</v>
       </c>
@@ -20675,7 +20693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>26984</v>
       </c>
@@ -20716,7 +20734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>18294</v>
       </c>
@@ -20757,7 +20775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>28564</v>
       </c>
@@ -20798,7 +20816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>28521</v>
       </c>
@@ -20839,7 +20857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>15450</v>
       </c>
@@ -20880,7 +20898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>25681</v>
       </c>
@@ -20921,7 +20939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>19491</v>
       </c>
@@ -20962,7 +20980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>26415</v>
       </c>
@@ -21003,7 +21021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>12821</v>
       </c>
@@ -21044,7 +21062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>15629</v>
       </c>
@@ -21085,7 +21103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>27835</v>
       </c>
@@ -21126,7 +21144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>11738</v>
       </c>
@@ -21167,7 +21185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>25065</v>
       </c>
@@ -21208,7 +21226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>26238</v>
       </c>
@@ -21249,7 +21267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>23707</v>
       </c>
@@ -21290,7 +21308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>27650</v>
       </c>
@@ -21331,7 +21349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>24981</v>
       </c>
@@ -21372,7 +21390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>20678</v>
       </c>
@@ -21413,7 +21431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>15302</v>
       </c>
@@ -21454,7 +21472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>26012</v>
       </c>
@@ -21495,7 +21513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>26575</v>
       </c>
@@ -21536,7 +21554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>15559</v>
       </c>
@@ -21577,7 +21595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>19235</v>
       </c>
@@ -21618,7 +21636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>15275</v>
       </c>
@@ -21659,7 +21677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>20339</v>
       </c>
@@ -21700,7 +21718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>25405</v>
       </c>
@@ -21741,7 +21759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>15940</v>
       </c>
@@ -21782,7 +21800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>25074</v>
       </c>
@@ -21823,7 +21841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>24738</v>
       </c>
@@ -21864,7 +21882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>16337</v>
       </c>
@@ -21905,7 +21923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>24357</v>
       </c>
@@ -21946,7 +21964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>18613</v>
       </c>
@@ -21987,7 +22005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>12207</v>
       </c>
@@ -22028,7 +22046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>18052</v>
       </c>
@@ -22069,7 +22087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>13353</v>
       </c>
@@ -22110,7 +22128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>19399</v>
       </c>
@@ -22151,7 +22169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>16154</v>
       </c>
@@ -22192,7 +22210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>22219</v>
       </c>
@@ -22233,7 +22251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>17269</v>
       </c>
@@ -22274,7 +22292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>23586</v>
       </c>
@@ -22315,7 +22333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>15740</v>
       </c>
@@ -22356,7 +22374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>27638</v>
       </c>
@@ -22397,7 +22415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>18976</v>
       </c>
@@ -22438,7 +22456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>19413</v>
       </c>
@@ -22479,7 +22497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>13283</v>
       </c>
@@ -22520,7 +22538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>17471</v>
       </c>
@@ -22561,7 +22579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>16791</v>
       </c>
@@ -22602,7 +22620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>15382</v>
       </c>
@@ -22643,7 +22661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>11641</v>
       </c>
@@ -22684,7 +22702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>11935</v>
       </c>
@@ -22725,7 +22743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>13233</v>
       </c>
@@ -22766,7 +22784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>25909</v>
       </c>
@@ -22807,7 +22825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>14092</v>
       </c>
@@ -22848,7 +22866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>29143</v>
       </c>
@@ -22889,7 +22907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>24941</v>
       </c>
@@ -22930,7 +22948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>24637</v>
       </c>
@@ -22971,7 +22989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>23893</v>
       </c>
@@ -23012,7 +23030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>13907</v>
       </c>
@@ -23053,7 +23071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>14900</v>
       </c>
@@ -23094,7 +23112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>11262</v>
       </c>
@@ -23135,7 +23153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>22294</v>
       </c>
@@ -23176,7 +23194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>12195</v>
       </c>
@@ -23217,7 +23235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>25375</v>
       </c>
@@ -23258,7 +23276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>11143</v>
       </c>
@@ -23299,7 +23317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>25898</v>
       </c>
@@ -23340,7 +23358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>24397</v>
       </c>
@@ -23381,7 +23399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>19758</v>
       </c>
@@ -23422,7 +23440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>15529</v>
       </c>
@@ -23463,7 +23481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>19884</v>
       </c>
@@ -23504,7 +23522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>18674</v>
       </c>
@@ -23545,7 +23563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>13453</v>
       </c>
@@ -23586,7 +23604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>14063</v>
       </c>
@@ -23627,7 +23645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>27393</v>
       </c>
@@ -23668,7 +23686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>14417</v>
       </c>
@@ -23709,7 +23727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>17533</v>
       </c>
@@ -23750,7 +23768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>18580</v>
       </c>
@@ -23791,7 +23809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>17025</v>
       </c>
@@ -23832,7 +23850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>25293</v>
       </c>
@@ -23873,7 +23891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>24725</v>
       </c>
@@ -23914,7 +23932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>23200</v>
       </c>
@@ -23955,7 +23973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>15895</v>
       </c>
@@ -23996,7 +24014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>18577</v>
       </c>
@@ -24037,7 +24055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>27218</v>
       </c>
@@ -24078,7 +24096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>18560</v>
       </c>
@@ -24119,7 +24137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>25006</v>
       </c>
@@ -24160,7 +24178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>17369</v>
       </c>
@@ -24201,7 +24219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>14495</v>
       </c>
@@ -24242,7 +24260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>18847</v>
       </c>
@@ -24283,7 +24301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>14754</v>
       </c>
@@ -24324,7 +24342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>23378</v>
       </c>
@@ -24365,7 +24383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>26452</v>
       </c>
@@ -24406,7 +24424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>20370</v>
       </c>
@@ -24447,7 +24465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>20528</v>
       </c>
@@ -24488,7 +24506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>23549</v>
       </c>
@@ -24529,7 +24547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>21751</v>
       </c>
@@ -24570,7 +24588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>21266</v>
       </c>
@@ -24611,7 +24629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>13388</v>
       </c>
@@ -24652,7 +24670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>18752</v>
       </c>
@@ -24693,7 +24711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>16917</v>
       </c>
@@ -24734,7 +24752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>15313</v>
       </c>
@@ -24775,7 +24793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>25329</v>
       </c>
@@ -24816,7 +24834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>20380</v>
       </c>
@@ -24857,7 +24875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>23089</v>
       </c>
@@ -24898,7 +24916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>13749</v>
       </c>
@@ -24939,7 +24957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>24943</v>
       </c>
@@ -24980,7 +24998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>28667</v>
       </c>
@@ -25021,7 +25039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>15194</v>
       </c>
@@ -25062,7 +25080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>17436</v>
       </c>
@@ -25103,7 +25121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>18935</v>
       </c>
@@ -25144,7 +25162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>16871</v>
       </c>
@@ -25185,7 +25203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>12100</v>
       </c>
@@ -25226,7 +25244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>23158</v>
       </c>
@@ -25267,7 +25285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>18545</v>
       </c>
@@ -25308,7 +25326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>18391</v>
       </c>
@@ -25349,7 +25367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>19812</v>
       </c>
@@ -25390,7 +25408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>27660</v>
       </c>
@@ -25431,7 +25449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>18058</v>
       </c>
@@ -25472,7 +25490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>20343</v>
       </c>
@@ -25513,7 +25531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>28997</v>
       </c>
@@ -25554,7 +25572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>24398</v>
       </c>
@@ -25595,7 +25613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>19002</v>
       </c>
@@ -25636,7 +25654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>28609</v>
       </c>
@@ -25677,7 +25695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>29231</v>
       </c>
@@ -25718,7 +25736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>18858</v>
       </c>
@@ -25759,7 +25777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>20000</v>
       </c>
@@ -25800,7 +25818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>25261</v>
       </c>
@@ -25841,7 +25859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>17458</v>
       </c>
@@ -25882,7 +25900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>11644</v>
       </c>
@@ -25923,7 +25941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>16145</v>
       </c>
@@ -25964,7 +25982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>16890</v>
       </c>
@@ -26005,7 +26023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>25983</v>
       </c>
@@ -26046,7 +26064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>14633</v>
       </c>
@@ -26087,7 +26105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>22994</v>
       </c>
@@ -26128,7 +26146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>22983</v>
       </c>
@@ -26169,7 +26187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>25184</v>
       </c>
@@ -26210,7 +26228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>14469</v>
       </c>
@@ -26251,7 +26269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>11538</v>
       </c>
@@ -26292,7 +26310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>16245</v>
       </c>
@@ -26333,7 +26351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>17858</v>
       </c>
@@ -26374,7 +26392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>25347</v>
       </c>
@@ -26415,7 +26433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>15814</v>
       </c>
@@ -26456,7 +26474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>11259</v>
       </c>
@@ -26497,7 +26515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>11200</v>
       </c>
@@ -26538,7 +26556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>25101</v>
       </c>
@@ -26579,7 +26597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>21801</v>
       </c>
@@ -26620,7 +26638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>25943</v>
       </c>
@@ -26661,7 +26679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>22127</v>
       </c>
@@ -26702,7 +26720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>20414</v>
       </c>
@@ -26743,7 +26761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>23672</v>
       </c>
@@ -26784,7 +26802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>29255</v>
       </c>
@@ -26825,7 +26843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>28815</v>
       </c>
@@ -26866,7 +26884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>27753</v>
       </c>
@@ -26907,7 +26925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>27643</v>
       </c>
@@ -26948,7 +26966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>13754</v>
       </c>
@@ -26989,7 +27007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>22088</v>
       </c>
@@ -27030,7 +27048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>27388</v>
       </c>
@@ -27071,7 +27089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>24745</v>
       </c>
@@ -27112,7 +27130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>29237</v>
       </c>
@@ -27153,7 +27171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>15272</v>
       </c>
@@ -27194,7 +27212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>18949</v>
       </c>
@@ -27235,7 +27253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>14507</v>
       </c>
@@ -27276,7 +27294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>25886</v>
       </c>
@@ -27317,7 +27335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>21441</v>
       </c>
@@ -27358,7 +27376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>21741</v>
       </c>
@@ -27399,7 +27417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>14572</v>
       </c>
@@ -27440,7 +27458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>23368</v>
       </c>
@@ -27481,7 +27499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>16217</v>
       </c>
@@ -27522,7 +27540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>16247</v>
       </c>
@@ -27563,7 +27581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>22010</v>
       </c>
@@ -27604,7 +27622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>25872</v>
       </c>
@@ -27645,7 +27663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>19164</v>
       </c>
@@ -27686,7 +27704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>18435</v>
       </c>
@@ -27727,7 +27745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>14284</v>
       </c>
@@ -27768,7 +27786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>11287</v>
       </c>
@@ -27809,7 +27827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>13066</v>
       </c>
@@ -27850,7 +27868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>29106</v>
       </c>
@@ -27891,7 +27909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>26236</v>
       </c>
@@ -27932,7 +27950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>17531</v>
       </c>
@@ -27973,7 +27991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>12964</v>
       </c>
@@ -28014,7 +28032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>19133</v>
       </c>
@@ -28055,7 +28073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>24643</v>
       </c>
@@ -28096,7 +28114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>21599</v>
       </c>
@@ -28137,7 +28155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>22976</v>
       </c>
@@ -28178,7 +28196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>27637</v>
       </c>
@@ -28219,7 +28237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>11890</v>
       </c>
@@ -28260,7 +28278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>28580</v>
       </c>
@@ -28301,7 +28319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>14443</v>
       </c>
@@ -28342,7 +28360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>17864</v>
       </c>
@@ -28383,7 +28401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>20505</v>
       </c>
@@ -28424,7 +28442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>14592</v>
       </c>
@@ -28465,7 +28483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>22227</v>
       </c>
@@ -28506,7 +28524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>21471</v>
       </c>
@@ -28547,7 +28565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>22252</v>
       </c>
@@ -28588,7 +28606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>21260</v>
       </c>
@@ -28629,7 +28647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>11817</v>
       </c>
@@ -28670,7 +28688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>19223</v>
       </c>
@@ -28711,7 +28729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>18517</v>
       </c>
@@ -28752,7 +28770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>21717</v>
       </c>
@@ -28793,7 +28811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>13760</v>
       </c>
@@ -28834,7 +28852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>18145</v>
       </c>
@@ -28875,7 +28893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>21770</v>
       </c>
@@ -28916,7 +28934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>11165</v>
       </c>
@@ -28957,7 +28975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>16377</v>
       </c>
@@ -28998,7 +29016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>26248</v>
       </c>
@@ -29039,7 +29057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>23461</v>
       </c>
@@ -29080,7 +29098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>29133</v>
       </c>
@@ -29121,7 +29139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>27673</v>
       </c>
@@ -29162,7 +29180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>12774</v>
       </c>
@@ -29203,7 +29221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>18910</v>
       </c>
@@ -29244,7 +29262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>11699</v>
       </c>
@@ -29285,7 +29303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>16725</v>
       </c>
@@ -29326,7 +29344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>28269</v>
       </c>
@@ -29367,7 +29385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>23144</v>
       </c>
@@ -29408,7 +29426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>23376</v>
       </c>
@@ -29449,7 +29467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>25970</v>
       </c>
@@ -29490,7 +29508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>28068</v>
       </c>
@@ -29531,7 +29549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>18390</v>
       </c>
@@ -29572,7 +29590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>29112</v>
       </c>
@@ -29613,7 +29631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>14090</v>
       </c>
@@ -29654,7 +29672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>27040</v>
       </c>
@@ -29695,7 +29713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>23479</v>
       </c>
@@ -29736,7 +29754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>16795</v>
       </c>
@@ -29777,7 +29795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>22014</v>
       </c>
@@ -29818,7 +29836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>13314</v>
       </c>
@@ -29859,7 +29877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>11619</v>
       </c>
@@ -29900,7 +29918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>29132</v>
       </c>
@@ -29941,7 +29959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>11199</v>
       </c>
@@ -29982,7 +30000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>20296</v>
       </c>
@@ -30023,7 +30041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>17546</v>
       </c>
@@ -30064,7 +30082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>18069</v>
       </c>
@@ -30105,7 +30123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>23712</v>
       </c>
@@ -30146,7 +30164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>23358</v>
       </c>
@@ -30187,7 +30205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>20518</v>
       </c>
@@ -30228,7 +30246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>28026</v>
       </c>
@@ -30269,7 +30287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>11669</v>
       </c>
@@ -30310,7 +30328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>16020</v>
       </c>
@@ -30351,7 +30369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>27090</v>
       </c>
@@ -30392,7 +30410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>27198</v>
       </c>
@@ -30433,7 +30451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>19661</v>
       </c>
@@ -30474,7 +30492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>26327</v>
       </c>
@@ -30515,7 +30533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>26341</v>
       </c>
@@ -30556,7 +30574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>24958</v>
       </c>
@@ -30597,7 +30615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>13287</v>
       </c>
@@ -30638,7 +30656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>14493</v>
       </c>
@@ -30679,7 +30697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>26678</v>
       </c>
@@ -30720,7 +30738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>23275</v>
       </c>
@@ -30761,7 +30779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>11270</v>
       </c>
@@ -30802,7 +30820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>20084</v>
       </c>
@@ -30843,7 +30861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>16144</v>
       </c>
@@ -30884,7 +30902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>27731</v>
       </c>
@@ -30925,7 +30943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>11886</v>
       </c>
@@ -30966,7 +30984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>24324</v>
       </c>
@@ -31007,7 +31025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>22220</v>
       </c>
@@ -31048,7 +31066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>26625</v>
       </c>
@@ -31089,7 +31107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>23027</v>
       </c>
@@ -31130,7 +31148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>16867</v>
       </c>
@@ -31171,7 +31189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>14514</v>
       </c>
@@ -31212,7 +31230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>19634</v>
       </c>
@@ -31253,7 +31271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>18504</v>
       </c>
@@ -31294,7 +31312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>28799</v>
       </c>
@@ -31335,7 +31353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>11225</v>
       </c>
@@ -31376,7 +31394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>17657</v>
       </c>
@@ -31417,7 +31435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>14913</v>
       </c>
@@ -31458,7 +31476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>14077</v>
       </c>
@@ -31499,7 +31517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>13296</v>
       </c>
@@ -31540,7 +31558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>20535</v>
       </c>
@@ -31581,7 +31599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>12452</v>
       </c>
@@ -31622,7 +31640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>28043</v>
       </c>
@@ -31663,7 +31681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>12957</v>
       </c>
@@ -31704,7 +31722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>15412</v>
       </c>
@@ -31745,7 +31763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>20514</v>
       </c>
@@ -31786,7 +31804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>20758</v>
       </c>
@@ -31827,7 +31845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>11801</v>
       </c>
@@ -31868,7 +31886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>22211</v>
       </c>
@@ -31909,7 +31927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>28087</v>
       </c>
@@ -31950,7 +31968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>23668</v>
       </c>
@@ -31991,7 +32009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>27441</v>
       </c>
@@ -32032,7 +32050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>27261</v>
       </c>
@@ -32073,7 +32091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>18649</v>
       </c>
@@ -32114,7 +32132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>21714</v>
       </c>
@@ -32155,7 +32173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>23217</v>
       </c>
@@ -32196,7 +32214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>23797</v>
       </c>
@@ -32237,7 +32255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>13216</v>
       </c>
@@ -32278,7 +32296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>20657</v>
       </c>
@@ -32319,7 +32337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>12882</v>
       </c>
@@ -32360,7 +32378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>25908</v>
       </c>
@@ -32401,7 +32419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>16753</v>
       </c>
@@ -32442,7 +32460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>14608</v>
       </c>
@@ -32483,7 +32501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>24979</v>
       </c>
@@ -32524,7 +32542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>13313</v>
       </c>
@@ -32565,7 +32583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>18952</v>
       </c>
@@ -32606,7 +32624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>17699</v>
       </c>
@@ -32647,7 +32665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>14657</v>
       </c>
@@ -32688,7 +32706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>11540</v>
       </c>
@@ -32729,7 +32747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>11783</v>
       </c>
@@ -32770,7 +32788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>14602</v>
       </c>
@@ -32811,7 +32829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>29030</v>
       </c>
@@ -32852,7 +32870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>26490</v>
       </c>
@@ -32893,7 +32911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>13151</v>
       </c>
@@ -32934,7 +32952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>17260</v>
       </c>
@@ -32975,7 +32993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>15372</v>
       </c>
@@ -33016,7 +33034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>18105</v>
       </c>
@@ -33057,7 +33075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>19660</v>
       </c>
@@ -33098,7 +33116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>16112</v>
       </c>
@@ -33139,7 +33157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>20698</v>
       </c>
@@ -33180,7 +33198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>20076</v>
       </c>
@@ -33221,7 +33239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>24496</v>
       </c>
@@ -33262,7 +33280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>15468</v>
       </c>
@@ -33303,7 +33321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>28031</v>
       </c>
@@ -33344,7 +33362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>26270</v>
       </c>
@@ -33385,7 +33403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>22221</v>
       </c>
@@ -33426,7 +33444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>28228</v>
       </c>
@@ -33467,7 +33485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>18363</v>
       </c>
@@ -33508,7 +33526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>23256</v>
       </c>
@@ -33549,7 +33567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>12768</v>
       </c>
@@ -33590,7 +33608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>20361</v>
       </c>
@@ -33631,7 +33649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>21306</v>
       </c>
@@ -33672,7 +33690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>13382</v>
       </c>
@@ -33713,7 +33731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>20310</v>
       </c>
@@ -33754,7 +33772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>22971</v>
       </c>
@@ -33795,7 +33813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>15287</v>
       </c>
@@ -33836,7 +33854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>15532</v>
       </c>
@@ -33877,7 +33895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>11255</v>
       </c>
@@ -33918,7 +33936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>28090</v>
       </c>
@@ -33959,7 +33977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>15255</v>
       </c>
@@ -34000,7 +34018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>13154</v>
       </c>
@@ -34041,7 +34059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>26778</v>
       </c>
@@ -34082,7 +34100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>23248</v>
       </c>
@@ -34123,7 +34141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>21417</v>
       </c>
@@ -34164,7 +34182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>17668</v>
       </c>
@@ -34205,7 +34223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>27994</v>
       </c>
@@ -34246,7 +34264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>20376</v>
       </c>
@@ -34287,7 +34305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>25954</v>
       </c>
@@ -34328,7 +34346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>15749</v>
       </c>
@@ -34369,7 +34387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>25899</v>
       </c>
@@ -34410,7 +34428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>13351</v>
       </c>
@@ -34451,7 +34469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>23333</v>
       </c>
@@ -34492,7 +34510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>21660</v>
       </c>
@@ -34533,7 +34551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>17012</v>
       </c>
@@ -34574,7 +34592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>24514</v>
       </c>
@@ -34615,7 +34633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>27505</v>
       </c>
@@ -34656,7 +34674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>29243</v>
       </c>
@@ -34697,7 +34715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>26582</v>
       </c>
@@ -34738,7 +34756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>14271</v>
       </c>
@@ -34779,7 +34797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>23041</v>
       </c>
@@ -34820,7 +34838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>29048</v>
       </c>
@@ -34861,7 +34879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>24433</v>
       </c>
@@ -34902,7 +34920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>15501</v>
       </c>
@@ -34943,7 +34961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>13911</v>
       </c>
@@ -34984,7 +35002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>20421</v>
       </c>
@@ -35025,7 +35043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>16009</v>
       </c>
@@ -35066,7 +35084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>18411</v>
       </c>
@@ -35107,7 +35125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>19163</v>
       </c>
@@ -35148,7 +35166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>18572</v>
       </c>
@@ -35189,7 +35207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>27540</v>
       </c>
@@ -35230,7 +35248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>19889</v>
       </c>
@@ -35271,7 +35289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>12922</v>
       </c>
@@ -35312,7 +35330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>18891</v>
       </c>
@@ -35353,7 +35371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>16773</v>
       </c>
@@ -35394,7 +35412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>19143</v>
       </c>
@@ -35435,7 +35453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>23882</v>
       </c>
@@ -35476,7 +35494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>11233</v>
       </c>
@@ -35517,7 +35535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>12056</v>
       </c>
@@ -35558,7 +35576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>15555</v>
       </c>
@@ -35599,7 +35617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>18423</v>
       </c>
@@ -35640,7 +35658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>22743</v>
       </c>
@@ -35681,7 +35699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>25343</v>
       </c>
@@ -35722,7 +35740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>13390</v>
       </c>
@@ -35763,7 +35781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>17482</v>
       </c>
@@ -35804,7 +35822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>13176</v>
       </c>
@@ -35845,7 +35863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>20504</v>
       </c>
@@ -35886,7 +35904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>12205</v>
       </c>
@@ -35927,7 +35945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>16751</v>
       </c>
@@ -35968,7 +35986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>21613</v>
       </c>
@@ -36009,7 +36027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>24801</v>
       </c>
@@ -36050,7 +36068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>17519</v>
       </c>
@@ -36091,7 +36109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>18347</v>
       </c>
@@ -36132,7 +36150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>29052</v>
       </c>
@@ -36173,7 +36191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>11745</v>
       </c>
@@ -36214,7 +36232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>19147</v>
       </c>
@@ -36255,7 +36273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>19217</v>
       </c>
@@ -36296,7 +36314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>15839</v>
       </c>
@@ -36337,7 +36355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>13714</v>
       </c>
@@ -36378,7 +36396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>22330</v>
       </c>
@@ -36419,7 +36437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>18783</v>
       </c>
@@ -36460,7 +36478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>25041</v>
       </c>
@@ -36501,7 +36519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>22046</v>
       </c>
@@ -36542,7 +36560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>28052</v>
       </c>
@@ -36583,7 +36601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>26693</v>
       </c>
@@ -36624,7 +36642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>24955</v>
       </c>
@@ -36665,7 +36683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>26065</v>
       </c>
@@ -36706,7 +36724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>13942</v>
       </c>
@@ -36747,7 +36765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>11219</v>
       </c>
@@ -36788,7 +36806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>22118</v>
       </c>
@@ -36829,7 +36847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>23197</v>
       </c>
@@ -36870,7 +36888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>14883</v>
       </c>
@@ -36911,7 +36929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>27279</v>
       </c>
@@ -36952,7 +36970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>18322</v>
       </c>
@@ -36993,7 +37011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>15879</v>
       </c>
@@ -37034,7 +37052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>28278</v>
       </c>
@@ -37075,7 +37093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>24416</v>
       </c>
@@ -37116,7 +37134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>28066</v>
       </c>
@@ -37157,7 +37175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>11275</v>
       </c>
@@ -37198,7 +37216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>14872</v>
       </c>
@@ -37239,7 +37257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>16151</v>
       </c>
@@ -37280,7 +37298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>19731</v>
       </c>
@@ -37321,7 +37339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>23801</v>
       </c>
@@ -37362,7 +37380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>11807</v>
       </c>
@@ -37403,7 +37421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>11622</v>
       </c>
@@ -37444,7 +37462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>26597</v>
       </c>
@@ -37485,7 +37503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>27074</v>
       </c>
@@ -37526,7 +37544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>19228</v>
       </c>
@@ -37567,7 +37585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>13415</v>
       </c>
@@ -37608,7 +37626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>17000</v>
       </c>
@@ -37649,7 +37667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>14569</v>
       </c>
@@ -37690,7 +37708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>13873</v>
       </c>
@@ -37731,7 +37749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="897" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>20401</v>
       </c>
@@ -37772,7 +37790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="898" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>21583</v>
       </c>
@@ -37813,7 +37831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="899" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>12029</v>
       </c>
@@ -37854,7 +37872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="900" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>18066</v>
       </c>
@@ -37895,7 +37913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="901" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>28192</v>
       </c>
@@ -37936,7 +37954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="902" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>16122</v>
       </c>
@@ -37977,7 +37995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="903" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>18607</v>
       </c>
@@ -38018,7 +38036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="904" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>28858</v>
       </c>
@@ -38059,7 +38077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>14432</v>
       </c>
@@ -38100,7 +38118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="906" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>26305</v>
       </c>
@@ -38141,7 +38159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="907" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>22050</v>
       </c>
@@ -38182,7 +38200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="908" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>25394</v>
       </c>
@@ -38223,7 +38241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="909" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>19747</v>
       </c>
@@ -38264,7 +38282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="910" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>23195</v>
       </c>
@@ -38305,7 +38323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="911" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>21695</v>
       </c>
@@ -38346,7 +38364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="912" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>13934</v>
       </c>
@@ -38387,7 +38405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="913" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>13337</v>
       </c>
@@ -38428,7 +38446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="914" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>27190</v>
       </c>
@@ -38469,7 +38487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="915" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>28657</v>
       </c>
@@ -38510,7 +38528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="916" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>21713</v>
       </c>
@@ -38551,7 +38569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="917" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>21752</v>
       </c>
@@ -38592,7 +38610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="918" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>27273</v>
       </c>
@@ -38633,7 +38651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="919" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>22719</v>
       </c>
@@ -38674,7 +38692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="920" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>22042</v>
       </c>
@@ -38715,7 +38733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="921" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>21451</v>
       </c>
@@ -38756,7 +38774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="922" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>20754</v>
       </c>
@@ -38797,7 +38815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="923" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>12153</v>
       </c>
@@ -38838,7 +38856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="924" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>16895</v>
       </c>
@@ -38879,7 +38897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="925" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>26728</v>
       </c>
@@ -38920,7 +38938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="926" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>11090</v>
       </c>
@@ -38961,7 +38979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="927" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>15862</v>
       </c>
@@ -39002,7 +39020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="928" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>26495</v>
       </c>
@@ -39043,7 +39061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="929" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>11823</v>
       </c>
@@ -39084,7 +39102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="930" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>23449</v>
       </c>
@@ -39125,7 +39143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="931" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>23459</v>
       </c>
@@ -39166,7 +39184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="932" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>19543</v>
       </c>
@@ -39207,7 +39225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="933" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>14914</v>
       </c>
@@ -39248,7 +39266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="934" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>12033</v>
       </c>
@@ -39289,7 +39307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="935" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>11941</v>
       </c>
@@ -39330,7 +39348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="936" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>14389</v>
       </c>
@@ -39371,7 +39389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="937" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>18050</v>
       </c>
@@ -39412,7 +39430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="938" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>19856</v>
       </c>
@@ -39453,7 +39471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="939" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>11663</v>
       </c>
@@ -39494,7 +39512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="940" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>27740</v>
       </c>
@@ -39535,7 +39553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="941" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>23455</v>
       </c>
@@ -39576,7 +39594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="942" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>15292</v>
       </c>
@@ -39617,7 +39635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="943" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>21587</v>
       </c>
@@ -39658,7 +39676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="944" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>23513</v>
       </c>
@@ -39699,7 +39717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>24322</v>
       </c>
@@ -39740,7 +39758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>26298</v>
       </c>
@@ -39781,7 +39799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>25419</v>
       </c>
@@ -39822,7 +39840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>13343</v>
       </c>
@@ -39863,7 +39881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>11303</v>
       </c>
@@ -39904,7 +39922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>21693</v>
       </c>
@@ -39945,7 +39963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>28056</v>
       </c>
@@ -39986,7 +40004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>11788</v>
       </c>
@@ -40027,7 +40045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>22296</v>
       </c>
@@ -40068,7 +40086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>15319</v>
       </c>
@@ -40109,7 +40127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>17654</v>
       </c>
@@ -40150,7 +40168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>14662</v>
       </c>
@@ -40191,7 +40209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>17541</v>
       </c>
@@ -40232,7 +40250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>13886</v>
       </c>
@@ -40273,7 +40291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>13073</v>
       </c>
@@ -40314,7 +40332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>21940</v>
       </c>
@@ -40355,7 +40373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="961" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>20196</v>
       </c>
@@ -40396,7 +40414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="962" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>23491</v>
       </c>
@@ -40437,7 +40455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="963" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>16651</v>
       </c>
@@ -40478,7 +40496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="964" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>16813</v>
       </c>
@@ -40519,7 +40537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="965" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>16007</v>
       </c>
@@ -40560,7 +40578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="966" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>27434</v>
       </c>
@@ -40601,7 +40619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="967" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>27756</v>
       </c>
@@ -40642,7 +40660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="968" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>23818</v>
       </c>
@@ -40683,7 +40701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="969" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>19012</v>
       </c>
@@ -40724,7 +40742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="970" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>18329</v>
       </c>
@@ -40765,7 +40783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="971" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>29037</v>
       </c>
@@ -40806,7 +40824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="972" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>26576</v>
       </c>
@@ -40847,7 +40865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="973" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>12192</v>
       </c>
@@ -40888,7 +40906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="974" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>14887</v>
       </c>
@@ -40929,7 +40947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="975" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>11734</v>
       </c>
@@ -40970,7 +40988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="976" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>17462</v>
       </c>
@@ -41011,7 +41029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="977" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>20659</v>
       </c>
@@ -41052,7 +41070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="978" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>28004</v>
       </c>
@@ -41093,7 +41111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="979" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>19741</v>
       </c>
@@ -41134,7 +41152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="980" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>17450</v>
       </c>
@@ -41175,7 +41193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="981" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>17337</v>
       </c>
@@ -41216,7 +41234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="982" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>18594</v>
       </c>
@@ -41257,7 +41275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="983" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>15982</v>
       </c>
@@ -41298,7 +41316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="984" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>28625</v>
       </c>
@@ -41339,7 +41357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="985" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>11269</v>
       </c>
@@ -41380,7 +41398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="986" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>25148</v>
       </c>
@@ -41421,7 +41439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="987" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>13920</v>
       </c>
@@ -41462,7 +41480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="988" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>23704</v>
       </c>
@@ -41503,7 +41521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="989" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>28972</v>
       </c>
@@ -41544,7 +41562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="990" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>22730</v>
       </c>
@@ -41585,7 +41603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="991" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>29134</v>
       </c>
@@ -41626,7 +41644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="992" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>14332</v>
       </c>
@@ -41667,7 +41685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="993" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>19117</v>
       </c>
@@ -41708,7 +41726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="994" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>22864</v>
       </c>
@@ -41749,7 +41767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="995" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>11292</v>
       </c>
@@ -41790,7 +41808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="996" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>13466</v>
       </c>
@@ -41831,7 +41849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="997" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>23731</v>
       </c>
@@ -41872,7 +41890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="998" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>28672</v>
       </c>
@@ -41913,7 +41931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="999" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>11809</v>
       </c>
@@ -41954,7 +41972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1000" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>19664</v>
       </c>
@@ -41995,7 +42013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1001" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>12121</v>
       </c>
@@ -42036,7 +42054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>13507</v>
       </c>
@@ -42077,7 +42095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1003" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>19280</v>
       </c>
@@ -42118,7 +42136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1004" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>22173</v>
       </c>
@@ -42159,7 +42177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1005" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>12697</v>
       </c>
@@ -42200,7 +42218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1006" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1006">
         <v>11434</v>
       </c>
@@ -42241,7 +42259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1007" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>25323</v>
       </c>
@@ -42282,7 +42300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1008" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>23542</v>
       </c>
@@ -42323,7 +42341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1009" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>20870</v>
       </c>
@@ -42364,7 +42382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1010" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1010">
         <v>23316</v>
       </c>
@@ -42405,7 +42423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1011" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1011">
         <v>12610</v>
       </c>
@@ -42446,7 +42464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1012" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1012">
         <v>27183</v>
       </c>
@@ -42487,7 +42505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1013" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1013">
         <v>25940</v>
       </c>
@@ -42528,7 +42546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1014" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1014">
         <v>25598</v>
       </c>
@@ -42569,7 +42587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1015" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1015">
         <v>21564</v>
       </c>
@@ -42610,7 +42628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1016" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>19193</v>
       </c>
@@ -42651,7 +42669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>26412</v>
       </c>
@@ -42692,7 +42710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1018" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>27184</v>
       </c>
@@ -42733,7 +42751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1019">
         <v>12590</v>
       </c>
@@ -42774,7 +42792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1020" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1020">
         <v>17841</v>
       </c>
@@ -42815,7 +42833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1021" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1021">
         <v>18283</v>
       </c>
@@ -42856,7 +42874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1022">
         <v>18299</v>
       </c>
@@ -42897,7 +42915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1023" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1023">
         <v>16466</v>
       </c>
@@ -42938,7 +42956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1024" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1024">
         <v>19273</v>
       </c>
@@ -42979,7 +42997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1025" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>22400</v>
       </c>
@@ -43020,7 +43038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1026" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1026">
         <v>20942</v>
       </c>
@@ -43061,7 +43079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1027" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1027">
         <v>18484</v>
       </c>
